--- a/static/download/2023/RP3_ERT_SU_2023_Jan_Dec.xlsx
+++ b/static/download/2023/RP3_ERT_SU_2023_Jan_Dec.xlsx
@@ -307,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border/>
     <border>
       <left/>
@@ -328,6 +328,11 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -406,13 +411,13 @@
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -436,43 +441,43 @@
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="4" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="5" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="9" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="5" fontId="9" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="3" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -563,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="9">
-        <v>45305.0</v>
+        <v>45415.0</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>7</v>
@@ -654,35 +659,35 @@
       </c>
       <c r="B6" s="25">
         <f>sum(B7:B35)</f>
-        <v>108508423</v>
+        <v>108379886</v>
       </c>
       <c r="C6" s="25">
         <f t="shared" ref="C6:C35" si="1">B6/C$4</f>
-        <v>297283.3508</v>
+        <v>296931.1945</v>
       </c>
       <c r="D6" s="25">
         <f>sum(D7:D35)</f>
-        <v>122490602.2</v>
+        <v>122379461</v>
       </c>
       <c r="E6" s="25">
         <f t="shared" ref="E6:E35" si="2">D6/E$4</f>
-        <v>335590.691</v>
+        <v>335286.1945</v>
       </c>
       <c r="F6" s="26">
         <f t="shared" ref="F6:F35" si="3">E6/C6-1</f>
-        <v>0.1288580074</v>
+        <v>0.129171339</v>
       </c>
       <c r="G6" s="25">
         <f>sum(G7:G35)</f>
-        <v>120945490</v>
+        <v>120905129</v>
       </c>
       <c r="H6" s="25">
         <f t="shared" ref="H6:H35" si="4">G6/H$4</f>
-        <v>331357.5068</v>
+        <v>331246.9288</v>
       </c>
       <c r="I6" s="26">
         <f t="shared" ref="I6:I35" si="5">D6/G6-1</f>
-        <v>0.01277527794</v>
+        <v>0.01219412288</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -690,22 +695,22 @@
         <v>23</v>
       </c>
       <c r="B7" s="27">
-        <v>3247861.51</v>
+        <v>3247862.0</v>
       </c>
       <c r="C7" s="25">
         <f t="shared" si="1"/>
-        <v>8898.250712</v>
+        <v>8898.252055</v>
       </c>
       <c r="D7" s="27">
-        <v>3847249.75</v>
+        <v>3847250.0</v>
       </c>
       <c r="E7" s="25">
         <f t="shared" si="2"/>
-        <v>10540.41027</v>
+        <v>10540.41096</v>
       </c>
       <c r="F7" s="26">
         <f t="shared" si="3"/>
-        <v>0.1845485832</v>
+        <v>0.1845484814</v>
       </c>
       <c r="G7" s="27">
         <v>3268998.0</v>
@@ -716,7 +721,7 @@
       </c>
       <c r="I7" s="26">
         <f t="shared" si="5"/>
-        <v>0.1768896004</v>
+        <v>0.1768896769</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -724,33 +729,33 @@
         <v>24</v>
       </c>
       <c r="B8" s="27">
-        <v>2096175.93</v>
+        <v>2096176.0</v>
       </c>
       <c r="C8" s="25">
         <f t="shared" si="1"/>
-        <v>5742.947753</v>
+        <v>5742.947945</v>
       </c>
       <c r="D8" s="27">
-        <v>2446534.85</v>
+        <v>2446535.0</v>
       </c>
       <c r="E8" s="25">
         <f t="shared" si="2"/>
-        <v>6702.835205</v>
+        <v>6702.835616</v>
       </c>
       <c r="F8" s="26">
         <f t="shared" si="3"/>
-        <v>0.167141944</v>
+        <v>0.1671419766</v>
       </c>
       <c r="G8" s="27">
-        <v>2444554.0</v>
+        <v>2404046.0</v>
       </c>
       <c r="H8" s="25">
         <f t="shared" si="4"/>
-        <v>6697.408219</v>
+        <v>6586.427397</v>
       </c>
       <c r="I8" s="26">
         <f t="shared" si="5"/>
-        <v>0.0008103114106</v>
+        <v>0.01767395466</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -758,33 +763,33 @@
         <v>25</v>
       </c>
       <c r="B9" s="27">
-        <v>3870653.92</v>
+        <v>3870654.0</v>
       </c>
       <c r="C9" s="25">
         <f t="shared" si="1"/>
-        <v>10604.53129</v>
+        <v>10604.53151</v>
       </c>
       <c r="D9" s="27">
-        <v>4670924.81</v>
+        <v>4670925.0</v>
       </c>
       <c r="E9" s="25">
         <f t="shared" si="2"/>
-        <v>12797.05427</v>
+        <v>12797.05479</v>
       </c>
       <c r="F9" s="26">
         <f t="shared" si="3"/>
-        <v>0.2067534082</v>
+        <v>0.2067534324</v>
       </c>
       <c r="G9" s="27">
-        <v>3709111.56</v>
+        <v>3709112.0</v>
       </c>
       <c r="H9" s="25">
         <f t="shared" si="4"/>
-        <v>10161.94948</v>
+        <v>10161.95068</v>
       </c>
       <c r="I9" s="26">
         <f t="shared" si="5"/>
-        <v>0.2593109521</v>
+        <v>0.2593108539</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -792,33 +797,33 @@
         <v>26</v>
       </c>
       <c r="B10" s="27">
-        <v>2228835.27</v>
+        <v>2228835.0</v>
       </c>
       <c r="C10" s="25">
         <f t="shared" si="1"/>
-        <v>6106.398</v>
+        <v>6106.39726</v>
       </c>
       <c r="D10" s="27">
-        <v>2562912.72</v>
+        <v>2562913.0</v>
       </c>
       <c r="E10" s="25">
         <f t="shared" si="2"/>
-        <v>7021.678685</v>
+        <v>7021.679452</v>
       </c>
       <c r="F10" s="26">
         <f t="shared" si="3"/>
-        <v>0.1498888027</v>
+        <v>0.1498890676</v>
       </c>
       <c r="G10" s="27">
-        <v>1946000.0</v>
+        <v>1945714.0</v>
       </c>
       <c r="H10" s="25">
         <f t="shared" si="4"/>
-        <v>5331.506849</v>
+        <v>5330.723288</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="5"/>
-        <v>0.3170157862</v>
+        <v>0.3172095179</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -826,22 +831,22 @@
         <v>27</v>
       </c>
       <c r="B11" s="27">
-        <v>1788096.68</v>
+        <v>1788097.0</v>
       </c>
       <c r="C11" s="25">
         <f t="shared" si="1"/>
-        <v>4898.895014</v>
+        <v>4898.89589</v>
       </c>
       <c r="D11" s="27">
-        <v>2066475.7</v>
+        <v>2066476.0</v>
       </c>
       <c r="E11" s="25">
         <f t="shared" si="2"/>
-        <v>5661.57726</v>
+        <v>5661.578082</v>
       </c>
       <c r="F11" s="26">
         <f t="shared" si="3"/>
-        <v>0.1556845461</v>
+        <v>0.155684507</v>
       </c>
       <c r="G11" s="27">
         <v>2129000.0</v>
@@ -852,7 +857,7 @@
       </c>
       <c r="I11" s="26">
         <f t="shared" si="5"/>
-        <v>-0.02936791921</v>
+        <v>-0.0293677783</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -867,15 +872,15 @@
         <v>4970.367123</v>
       </c>
       <c r="D12" s="27">
-        <v>2004226.43</v>
+        <v>2004226.0</v>
       </c>
       <c r="E12" s="25">
         <f t="shared" si="2"/>
-        <v>5491.031315</v>
+        <v>5491.030137</v>
       </c>
       <c r="F12" s="26">
         <f t="shared" si="3"/>
-        <v>0.1047536689</v>
+        <v>0.1047534318</v>
       </c>
       <c r="G12" s="27">
         <v>2195628.0</v>
@@ -886,7 +891,7 @@
       </c>
       <c r="I12" s="26">
         <f t="shared" si="5"/>
-        <v>-0.08717395205</v>
+        <v>-0.0871741479</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -894,22 +899,22 @@
         <v>29</v>
       </c>
       <c r="B13" s="27">
-        <v>1282409.65</v>
+        <v>1282410.0</v>
       </c>
       <c r="C13" s="25">
         <f t="shared" si="1"/>
-        <v>3513.451096</v>
+        <v>3513.452055</v>
       </c>
       <c r="D13" s="27">
-        <v>1458514.98</v>
+        <v>1458515.0</v>
       </c>
       <c r="E13" s="25">
         <f t="shared" si="2"/>
-        <v>3995.931452</v>
+        <v>3995.931507</v>
       </c>
       <c r="F13" s="26">
         <f t="shared" si="3"/>
-        <v>0.1373237717</v>
+        <v>0.1373234769</v>
       </c>
       <c r="G13" s="27">
         <v>1660614.0</v>
@@ -920,7 +925,7 @@
       </c>
       <c r="I13" s="26">
         <f t="shared" si="5"/>
-        <v>-0.1217013827</v>
+        <v>-0.1217013707</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -928,22 +933,22 @@
         <v>30</v>
       </c>
       <c r="B14" s="27">
-        <v>428510.54</v>
+        <v>428511.0</v>
       </c>
       <c r="C14" s="25">
         <f t="shared" si="1"/>
-        <v>1174.001479</v>
+        <v>1174.00274</v>
       </c>
       <c r="D14" s="27">
-        <v>446249.88</v>
+        <v>446250.0</v>
       </c>
       <c r="E14" s="25">
         <f t="shared" si="2"/>
-        <v>1222.602411</v>
+        <v>1222.60274</v>
       </c>
       <c r="F14" s="26">
         <f t="shared" si="3"/>
-        <v>0.04139767484</v>
+        <v>0.04139683695</v>
       </c>
       <c r="G14" s="27">
         <v>865151.0</v>
@@ -954,7 +959,7 @@
       </c>
       <c r="I14" s="26">
         <f t="shared" si="5"/>
-        <v>-0.4841942274</v>
+        <v>-0.4841940887</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -962,33 +967,33 @@
         <v>31</v>
       </c>
       <c r="B15" s="27">
-        <v>597862.02</v>
+        <v>597862.0</v>
       </c>
       <c r="C15" s="25">
         <f t="shared" si="1"/>
-        <v>1637.978137</v>
+        <v>1637.978082</v>
       </c>
       <c r="D15" s="27">
-        <v>659113.69</v>
+        <v>659114.0</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" si="2"/>
-        <v>1805.790932</v>
+        <v>1805.791781</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" si="3"/>
-        <v>0.102451181</v>
+        <v>0.1024517364</v>
       </c>
       <c r="G15" s="27">
-        <v>1087000.0</v>
+        <v>1086670.0</v>
       </c>
       <c r="H15" s="25">
         <f t="shared" si="4"/>
-        <v>2978.082192</v>
+        <v>2977.178082</v>
       </c>
       <c r="I15" s="26">
         <f t="shared" si="5"/>
-        <v>-0.3936396596</v>
+        <v>-0.3934552348</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -996,22 +1001,22 @@
         <v>32</v>
       </c>
       <c r="B16" s="27">
-        <v>1.889798508E7</v>
+        <v>1.8897985E7</v>
       </c>
       <c r="C16" s="25">
         <f t="shared" si="1"/>
-        <v>51775.30159</v>
+        <v>51775.30137</v>
       </c>
       <c r="D16" s="27">
-        <v>2.108829187E7</v>
+        <v>2.1088292E7</v>
       </c>
       <c r="E16" s="25">
         <f t="shared" si="2"/>
-        <v>57776.14211</v>
+        <v>57776.14247</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="3"/>
-        <v>0.1159016044</v>
+        <v>0.115901616</v>
       </c>
       <c r="G16" s="27">
         <v>2.1020185E7</v>
@@ -1022,7 +1027,7 @@
       </c>
       <c r="I16" s="26">
         <f t="shared" si="5"/>
-        <v>0.003240069961</v>
+        <v>0.003240076146</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -1030,22 +1035,22 @@
         <v>33</v>
       </c>
       <c r="B17" s="27">
-        <v>1.264728363E7</v>
+        <v>1.2518746E7</v>
       </c>
       <c r="C17" s="25">
         <f t="shared" si="1"/>
-        <v>34650.09214</v>
+        <v>34297.93425</v>
       </c>
       <c r="D17" s="27">
-        <v>1.37303367E7</v>
+        <v>1.3619197E7</v>
       </c>
       <c r="E17" s="25">
         <f t="shared" si="2"/>
-        <v>37617.36082</v>
+        <v>37312.86849</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="3"/>
-        <v>0.08563523217</v>
+        <v>0.08790425175</v>
       </c>
       <c r="G17" s="27">
         <v>1.48625E7</v>
@@ -1056,7 +1061,7 @@
       </c>
       <c r="I17" s="26">
         <f t="shared" si="5"/>
-        <v>-0.07617583179</v>
+        <v>-0.08365369218</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -1064,22 +1069,22 @@
         <v>34</v>
       </c>
       <c r="B18" s="27">
-        <v>6416384.21</v>
+        <v>6416384.0</v>
       </c>
       <c r="C18" s="25">
         <f t="shared" si="1"/>
-        <v>17579.13482</v>
+        <v>17579.13425</v>
       </c>
       <c r="D18" s="27">
-        <v>7310661.45</v>
+        <v>7310661.0</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" si="2"/>
-        <v>20029.20945</v>
+        <v>20029.20822</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" si="3"/>
-        <v>0.1393740167</v>
+        <v>0.1393739839</v>
       </c>
       <c r="G18" s="27">
         <v>6584000.0</v>
@@ -1090,7 +1095,7 @@
       </c>
       <c r="I18" s="26">
         <f t="shared" si="5"/>
-        <v>0.1103677779</v>
+        <v>0.1103677096</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -1098,22 +1103,22 @@
         <v>35</v>
       </c>
       <c r="B19" s="27">
-        <v>3184085.02</v>
+        <v>3184085.0</v>
       </c>
       <c r="C19" s="25">
         <f t="shared" si="1"/>
-        <v>8723.520603</v>
+        <v>8723.520548</v>
       </c>
       <c r="D19" s="27">
-        <v>3725594.36</v>
+        <v>3725594.0</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="2"/>
-        <v>10207.10784</v>
+        <v>10207.10685</v>
       </c>
       <c r="F19" s="26">
         <f t="shared" si="3"/>
-        <v>0.1700674877</v>
+        <v>0.170067382</v>
       </c>
       <c r="G19" s="27">
         <v>2881187.0</v>
@@ -1124,7 +1129,7 @@
       </c>
       <c r="I19" s="26">
         <f t="shared" si="5"/>
-        <v>0.2930762078</v>
+        <v>0.2930760829</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1132,33 +1137,33 @@
         <v>36</v>
       </c>
       <c r="B20" s="27">
-        <v>4233451.96</v>
+        <v>4233452.0</v>
       </c>
       <c r="C20" s="25">
         <f t="shared" si="1"/>
-        <v>11598.49852</v>
+        <v>11598.49863</v>
       </c>
       <c r="D20" s="27">
-        <v>4811843.18</v>
+        <v>4811843.0</v>
       </c>
       <c r="E20" s="25">
         <f t="shared" si="2"/>
-        <v>13183.132</v>
+        <v>13183.13151</v>
       </c>
       <c r="F20" s="26">
         <f t="shared" si="3"/>
-        <v>0.1366240188</v>
+        <v>0.1366239655</v>
       </c>
       <c r="G20" s="27">
-        <v>4882829.0</v>
+        <v>4883000.0</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="4"/>
-        <v>13377.6137</v>
+        <v>13378.08219</v>
       </c>
       <c r="I20" s="26">
         <f t="shared" si="5"/>
-        <v>-0.01453784681</v>
+        <v>-0.01457239402</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -1166,22 +1171,22 @@
         <v>37</v>
       </c>
       <c r="B21" s="27">
-        <v>9561777.77</v>
+        <v>9561778.0</v>
       </c>
       <c r="C21" s="25">
         <f t="shared" si="1"/>
-        <v>26196.65142</v>
+        <v>26196.65205</v>
       </c>
       <c r="D21" s="27">
-        <v>1.061835362E7</v>
+        <v>1.0618354E7</v>
       </c>
       <c r="E21" s="25">
         <f t="shared" si="2"/>
-        <v>29091.37978</v>
+        <v>29091.38082</v>
       </c>
       <c r="F21" s="26">
         <f t="shared" si="3"/>
-        <v>0.1104999379</v>
+        <v>0.110499951</v>
       </c>
       <c r="G21" s="27">
         <v>1.0457E7</v>
@@ -1192,7 +1197,7 @@
       </c>
       <c r="I21" s="26">
         <f t="shared" si="5"/>
-        <v>0.01543020178</v>
+        <v>0.01543023812</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1200,22 +1205,22 @@
         <v>38</v>
       </c>
       <c r="B22" s="27">
-        <v>465601.41</v>
+        <v>465601.0</v>
       </c>
       <c r="C22" s="25">
         <f t="shared" si="1"/>
-        <v>1275.620301</v>
+        <v>1275.619178</v>
       </c>
       <c r="D22" s="27">
-        <v>465896.55</v>
+        <v>465897.0</v>
       </c>
       <c r="E22" s="25">
         <f t="shared" si="2"/>
-        <v>1276.428904</v>
+        <v>1276.430137</v>
       </c>
       <c r="F22" s="26">
         <f t="shared" si="3"/>
-        <v>0.0006338898329</v>
+        <v>0.0006357374662</v>
       </c>
       <c r="G22" s="27">
         <v>548000.0</v>
@@ -1226,7 +1231,7 @@
       </c>
       <c r="I22" s="26">
         <f t="shared" si="5"/>
-        <v>-0.1498238139</v>
+        <v>-0.1498229927</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -1234,33 +1239,33 @@
         <v>39</v>
       </c>
       <c r="B23" s="27">
-        <v>375999.07</v>
+        <v>375999.0</v>
       </c>
       <c r="C23" s="25">
         <f t="shared" si="1"/>
-        <v>1030.134438</v>
+        <v>1030.134247</v>
       </c>
       <c r="D23" s="27">
-        <v>404023.02</v>
+        <v>404023.0</v>
       </c>
       <c r="E23" s="25">
         <f t="shared" si="2"/>
-        <v>1106.912384</v>
+        <v>1106.912329</v>
       </c>
       <c r="F23" s="26">
         <f t="shared" si="3"/>
-        <v>0.07453196626</v>
+        <v>0.07453211312</v>
       </c>
       <c r="G23" s="27">
-        <v>415785.38</v>
+        <v>416000.0</v>
       </c>
       <c r="H23" s="25">
         <f t="shared" si="4"/>
-        <v>1139.138027</v>
+        <v>1139.726027</v>
       </c>
       <c r="I23" s="26">
         <f t="shared" si="5"/>
-        <v>-0.02828949878</v>
+        <v>-0.02879086538</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -1268,22 +1273,22 @@
         <v>40</v>
       </c>
       <c r="B24" s="27">
-        <v>666811.86</v>
+        <v>666812.0</v>
       </c>
       <c r="C24" s="25">
         <f t="shared" si="1"/>
-        <v>1826.881808</v>
+        <v>1826.882192</v>
       </c>
       <c r="D24" s="27">
-        <v>968128.07</v>
+        <v>968128.0</v>
       </c>
       <c r="E24" s="25">
         <f t="shared" si="2"/>
-        <v>2652.405671</v>
+        <v>2652.405479</v>
       </c>
       <c r="F24" s="26">
         <f t="shared" si="3"/>
-        <v>0.4518759009</v>
+        <v>0.4518754911</v>
       </c>
       <c r="G24" s="27">
         <v>1006000.0</v>
@@ -1294,7 +1299,7 @@
       </c>
       <c r="I24" s="26">
         <f t="shared" si="5"/>
-        <v>-0.03764605368</v>
+        <v>-0.03764612326</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -1302,22 +1307,22 @@
         <v>41</v>
       </c>
       <c r="B25" s="27">
-        <v>2585834.59</v>
+        <v>2585835.0</v>
       </c>
       <c r="C25" s="25">
         <f t="shared" si="1"/>
-        <v>7084.478329</v>
+        <v>7084.479452</v>
       </c>
       <c r="D25" s="27">
-        <v>2833576.37</v>
+        <v>2833576.0</v>
       </c>
       <c r="E25" s="25">
         <f t="shared" si="2"/>
-        <v>7763.222932</v>
+        <v>7763.221918</v>
       </c>
       <c r="F25" s="26">
         <f t="shared" si="3"/>
-        <v>0.09580728054</v>
+        <v>0.09580696371</v>
       </c>
       <c r="G25" s="27">
         <v>3081000.0</v>
@@ -1328,7 +1333,7 @@
       </c>
       <c r="I25" s="26">
         <f t="shared" si="5"/>
-        <v>-0.08030627394</v>
+        <v>-0.08030639403</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -1336,33 +1341,33 @@
         <v>42</v>
       </c>
       <c r="B26" s="27">
-        <v>2071286.72</v>
+        <v>2071287.0</v>
       </c>
       <c r="C26" s="25">
         <f t="shared" si="1"/>
-        <v>5674.758137</v>
+        <v>5674.758904</v>
       </c>
       <c r="D26" s="27">
-        <v>2328670.41</v>
+        <v>2328670.0</v>
       </c>
       <c r="E26" s="25">
         <f t="shared" si="2"/>
-        <v>6379.918932</v>
+        <v>6379.917808</v>
       </c>
       <c r="F26" s="26">
         <f t="shared" si="3"/>
-        <v>0.1242627047</v>
+        <v>0.1242623548</v>
       </c>
       <c r="G26" s="27">
-        <v>2316485.39</v>
+        <v>2316485.0</v>
       </c>
       <c r="H26" s="25">
         <f t="shared" si="4"/>
-        <v>6346.535315</v>
+        <v>6346.534247</v>
       </c>
       <c r="I26" s="26">
         <f t="shared" si="5"/>
-        <v>0.005260132463</v>
+        <v>0.005260124715</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -1370,22 +1375,22 @@
         <v>43</v>
       </c>
       <c r="B27" s="27">
-        <v>3128964.46</v>
+        <v>3128964.0</v>
       </c>
       <c r="C27" s="25">
         <f t="shared" si="1"/>
-        <v>8572.50537</v>
+        <v>8572.50411</v>
       </c>
       <c r="D27" s="27">
-        <v>3536911.42</v>
+        <v>3536911.0</v>
       </c>
       <c r="E27" s="25">
         <f t="shared" si="2"/>
-        <v>9690.168274</v>
+        <v>9690.167123</v>
       </c>
       <c r="F27" s="26">
         <f t="shared" si="3"/>
-        <v>0.1303776266</v>
+        <v>0.1303776585</v>
       </c>
       <c r="G27" s="27">
         <v>4762963.0</v>
@@ -1396,7 +1401,7 @@
       </c>
       <c r="I27" s="26">
         <f t="shared" si="5"/>
-        <v>-0.2574136268</v>
+        <v>-0.257413715</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -1404,22 +1409,22 @@
         <v>44</v>
       </c>
       <c r="B28" s="27">
-        <v>3695099.17</v>
+        <v>3695099.0</v>
       </c>
       <c r="C28" s="25">
         <f t="shared" si="1"/>
-        <v>10123.55937</v>
+        <v>10123.5589</v>
       </c>
       <c r="D28" s="27">
-        <v>4123128.4</v>
+        <v>4123128.0</v>
       </c>
       <c r="E28" s="25">
         <f t="shared" si="2"/>
-        <v>11296.24219</v>
+        <v>11296.2411</v>
       </c>
       <c r="F28" s="26">
         <f t="shared" si="3"/>
-        <v>0.1158370074</v>
+        <v>0.1158369505</v>
       </c>
       <c r="G28" s="27">
         <v>3582357.0</v>
@@ -1430,7 +1435,7 @@
       </c>
       <c r="I28" s="26">
         <f t="shared" si="5"/>
-        <v>0.1509540786</v>
+        <v>0.1509539669</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1438,22 +1443,22 @@
         <v>45</v>
       </c>
       <c r="B29" s="27">
-        <v>4770303.57</v>
+        <v>4770304.0</v>
       </c>
       <c r="C29" s="25">
         <f t="shared" si="1"/>
-        <v>13069.32485</v>
+        <v>13069.32603</v>
       </c>
       <c r="D29" s="27">
-        <v>5920196.34</v>
+        <v>5920196.0</v>
       </c>
       <c r="E29" s="25">
         <f t="shared" si="2"/>
-        <v>16219.716</v>
+        <v>16219.71507</v>
       </c>
       <c r="F29" s="26">
         <f t="shared" si="3"/>
-        <v>0.2410523257</v>
+        <v>0.2410521426</v>
       </c>
       <c r="G29" s="27">
         <v>5531000.0</v>
@@ -1464,7 +1469,7 @@
       </c>
       <c r="I29" s="26">
         <f t="shared" si="5"/>
-        <v>0.07036636051</v>
+        <v>0.07036629904</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -1472,33 +1477,33 @@
         <v>46</v>
       </c>
       <c r="B30" s="27">
-        <v>972528.11</v>
+        <v>972528.0</v>
       </c>
       <c r="C30" s="25">
         <f t="shared" si="1"/>
-        <v>2664.460575</v>
+        <v>2664.460274</v>
       </c>
       <c r="D30" s="27">
-        <v>1083018.31</v>
+        <v>1083018.0</v>
       </c>
       <c r="E30" s="25">
         <f t="shared" si="2"/>
-        <v>2967.173452</v>
+        <v>2967.172603</v>
       </c>
       <c r="F30" s="26">
         <f t="shared" si="3"/>
-        <v>0.1136113176</v>
+        <v>0.1136111248</v>
       </c>
       <c r="G30" s="27">
-        <v>952668.0</v>
+        <v>953000.0</v>
       </c>
       <c r="H30" s="25">
         <f t="shared" si="4"/>
-        <v>2610.049315</v>
+        <v>2610.958904</v>
       </c>
       <c r="I30" s="26">
         <f t="shared" si="5"/>
-        <v>0.136826586</v>
+        <v>0.1364302204</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -1506,33 +1511,33 @@
         <v>47</v>
       </c>
       <c r="B31" s="27">
-        <v>595455.76</v>
+        <v>595456.0</v>
       </c>
       <c r="C31" s="25">
         <f t="shared" si="1"/>
-        <v>1631.385644</v>
+        <v>1631.386301</v>
       </c>
       <c r="D31" s="27">
-        <v>677206.78</v>
+        <v>677207.0</v>
       </c>
       <c r="E31" s="25">
         <f t="shared" si="2"/>
-        <v>1855.361041</v>
+        <v>1855.361644</v>
       </c>
       <c r="F31" s="26">
         <f t="shared" si="3"/>
-        <v>0.1372915093</v>
+        <v>0.1372914204</v>
       </c>
       <c r="G31" s="27">
-        <v>570849.22</v>
+        <v>570849.0</v>
       </c>
       <c r="H31" s="25">
         <f t="shared" si="4"/>
-        <v>1563.970466</v>
+        <v>1563.969863</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="5"/>
-        <v>0.1863146279</v>
+        <v>0.1863154705</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -1540,22 +1545,22 @@
         <v>48</v>
       </c>
       <c r="B32" s="27">
-        <v>1789655.33</v>
+        <v>1789655.0</v>
       </c>
       <c r="C32" s="25">
         <f t="shared" si="1"/>
-        <v>4903.165288</v>
+        <v>4903.164384</v>
       </c>
       <c r="D32" s="27">
-        <v>1990427.92</v>
+        <v>1990428.0</v>
       </c>
       <c r="E32" s="25">
         <f t="shared" si="2"/>
-        <v>5453.227178</v>
+        <v>5453.227397</v>
       </c>
       <c r="F32" s="26">
         <f t="shared" si="3"/>
-        <v>0.1121850597</v>
+        <v>0.1121853095</v>
       </c>
       <c r="G32" s="27">
         <v>1610163.0</v>
@@ -1566,7 +1571,7 @@
       </c>
       <c r="I32" s="26">
         <f t="shared" si="5"/>
-        <v>0.2361654814</v>
+        <v>0.2361655311</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1574,22 +1579,22 @@
         <v>49</v>
       </c>
       <c r="B33" s="27">
-        <v>1.107870948E7</v>
+        <v>1.1078709E7</v>
       </c>
       <c r="C33" s="25">
         <f t="shared" si="1"/>
-        <v>30352.62871</v>
+        <v>30352.6274</v>
       </c>
       <c r="D33" s="27">
-        <v>1.245183088E7</v>
+        <v>1.2451831E7</v>
       </c>
       <c r="E33" s="25">
         <f t="shared" si="2"/>
-        <v>34114.60515</v>
+        <v>34114.60548</v>
       </c>
       <c r="F33" s="26">
         <f t="shared" si="3"/>
-        <v>0.1239423601</v>
+        <v>0.1239424196</v>
       </c>
       <c r="G33" s="27">
         <v>1.1637507E7</v>
@@ -1600,7 +1605,7 @@
       </c>
       <c r="I33" s="26">
         <f t="shared" si="5"/>
-        <v>0.06997408294</v>
+        <v>0.06997409325</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -1608,22 +1613,22 @@
         <v>50</v>
       </c>
       <c r="B34" s="27">
-        <v>2471898.49</v>
+        <v>2471898.0</v>
       </c>
       <c r="C34" s="25">
         <f t="shared" si="1"/>
-        <v>6772.32463</v>
+        <v>6772.323288</v>
       </c>
       <c r="D34" s="27">
-        <v>2665647.42</v>
+        <v>2665647.0</v>
       </c>
       <c r="E34" s="25">
         <f t="shared" si="2"/>
-        <v>7303.143616</v>
+        <v>7303.142466</v>
       </c>
       <c r="F34" s="26">
         <f t="shared" si="3"/>
-        <v>0.07838061748</v>
+        <v>0.07838066134</v>
       </c>
       <c r="G34" s="27">
         <v>3248000.0</v>
@@ -1634,7 +1639,7 @@
       </c>
       <c r="I34" s="26">
         <f t="shared" si="5"/>
-        <v>-0.1792957451</v>
+        <v>-0.1792958744</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1642,33 +1647,33 @@
         <v>51</v>
       </c>
       <c r="B35" s="27">
-        <v>1544717.83</v>
+        <v>1544718.0</v>
       </c>
       <c r="C35" s="25">
         <f t="shared" si="1"/>
-        <v>4232.103644</v>
+        <v>4232.10411</v>
       </c>
       <c r="D35" s="27">
-        <v>1594656.34</v>
+        <v>1594656.0</v>
       </c>
       <c r="E35" s="25">
         <f t="shared" si="2"/>
-        <v>4368.921479</v>
+        <v>4368.920548</v>
       </c>
       <c r="F35" s="26">
         <f t="shared" si="3"/>
-        <v>0.0323285645</v>
+        <v>0.03232823078</v>
       </c>
       <c r="G35" s="27">
-        <v>1688954.42</v>
+        <v>1689000.0</v>
       </c>
       <c r="H35" s="25">
         <f t="shared" si="4"/>
-        <v>4627.272384</v>
+        <v>4627.39726</v>
       </c>
       <c r="I35" s="26">
         <f t="shared" si="5"/>
-        <v>-0.05583222311</v>
+        <v>-0.05585790409</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
